--- a/biology/Zoologie/Bouvreuil_à_tête_grise/Bouvreuil_à_tête_grise.xlsx
+++ b/biology/Zoologie/Bouvreuil_à_tête_grise/Bouvreuil_à_tête_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrrhula erythaca
 Le Bouvreuil à tête grise (Pyrrhula erythaca) est une espèce de passereaux appartenant à la famille des Fringillidae. On le trouve au Bhoutan, en Birmanie, en Chine, au Népal, à Taiwan et en Thaïlande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L’espèce a été décrite par le zoologiste britannique Blyth en 1862.
-Nom vernaculaire
-Bouvreuil à masque
-Bouvreuil à tête grise</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce a été décrite par le zoologiste britannique Blyth en 1862.
+</t>
         </is>
       </c>
     </row>
@@ -527,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bouvreuil à masque
+Bouvreuil à tête grise</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bouvreuil_à_tête_grise</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des sous-espèces, d'après Alan P. Peterson
 Pyrrhula erythaca erythaca  Blyth, 1862 ;
@@ -553,44 +604,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il marque une prédilection d’habitat pour les forêts de conifères et de rhododendrons, les fourrés de saules et d’argousiers avec un statut de sédentaire, localement commun, sujet à des déplacements d’altitudes (été : 2500-3 800 m, hiver : 2000-3 200 m).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle consiste en bourgeons et graines d’arbres (bouleaux, peupliers, saules, trembles). Plus précisément, des bourgeons d’un koelreuteria (Koelreuteria formosana), des graines de colza (Brassica napus) et des chatons du saule (Salix fragilis) ont été recensés, photos à l’appui.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il marque une prédilection d’habitat pour les forêts de conifères et de rhododendrons, les fourrés de saules et d’argousiers avec un statut de sédentaire, localement commun, sujet à des déplacements d’altitudes (été : 2500-3 800 m, hiver : 2000-3 200 m).
 </t>
         </is>
       </c>
@@ -621,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,12 +658,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nidification</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce se reproduit à la fin de l’été en construisant, dans un buisson ou un jeune conifère, un nid désordonné de ramilles et tapissé de poils. La ponte se compose de quatre ou cinq œufs blanc bleuté tachetés de brun roux.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle consiste en bourgeons et graines d’arbres (bouleaux, peupliers, saules, trembles). Plus précisément, des bourgeons d’un koelreuteria (Koelreuteria formosana), des graines de colza (Brassica napus) et des chatons du saule (Salix fragilis) ont été recensés, photos à l’appui.
 </t>
         </is>
       </c>
@@ -652,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+          <t>Bouvreuil_à_tête_grise</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,10 +691,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Nidification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce se reproduit à la fin de l’été en construisant, dans un buisson ou un jeune conifère, un nid désordonné de ramilles et tapissé de poils. La ponte se compose de quatre ou cinq œufs blanc bleuté tachetés de brun roux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bouvreuil_à_tête_grise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvreuil_%C3%A0_t%C3%AAte_grise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré une vaste distribution, l’espèce est considérée comme globalement rare ou assez commune localement. En fait, son statut dépend beaucoup de la localisation car elle semble franchement commune seulement localement, comme dans la Panda Valley dans le Seutchouan où elle bénéficie de la protection apportée par la réserve naturelle de Wolong, dédiée aux pandas et dans l’Eaglenest Biodiversity Project en Arunachal Pradesh dans l’extrême nord-est de l’Inde.
 </t>
